--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite NI Director U25Aprentice201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite NI Director U25Aprentice201718.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="384" yWindow="84" windowWidth="14340" windowHeight="4452" firstSheet="19" activeTab="21"/>
+    <workbookView xWindow="390" yWindow="90" windowWidth="14340" windowHeight="4455" firstSheet="19" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -30,12 +35,12 @@
     <sheet name="PayrollNIDirctrU25AprenticeM7" sheetId="34" r:id="rId21"/>
     <sheet name="TestReportsOctober" sheetId="35" r:id="rId22"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="88">
   <si>
     <t>TC</t>
   </si>
@@ -296,12 +301,15 @@
   </si>
   <si>
     <t>Monthly_Payroll</t>
+  </si>
+  <si>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201718\\201718 Payroll NI Director's calculation Test result.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -400,13 +408,16 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -455,7 +466,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -488,9 +499,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -523,6 +551,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -698,22 +743,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="43.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="37.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="43.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -727,7 +772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>17</v>
       </c>
@@ -741,7 +786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>61</v>
       </c>
@@ -755,7 +800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>62</v>
       </c>
@@ -769,7 +814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>36</v>
       </c>
@@ -783,7 +828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>64</v>
       </c>
@@ -797,7 +842,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>65</v>
       </c>
@@ -811,7 +856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>37</v>
       </c>
@@ -825,7 +870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>66</v>
       </c>
@@ -839,7 +884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>67</v>
       </c>
@@ -853,7 +898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>39</v>
       </c>
@@ -867,7 +912,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>68</v>
       </c>
@@ -881,7 +926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>69</v>
       </c>
@@ -895,7 +940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="5" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" s="5" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>51</v>
       </c>
@@ -909,7 +954,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>70</v>
       </c>
@@ -923,7 +968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>71</v>
       </c>
@@ -937,7 +982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="5" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" s="5" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>52</v>
       </c>
@@ -951,7 +996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>72</v>
       </c>
@@ -965,7 +1010,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>73</v>
       </c>
@@ -979,7 +1024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="5" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" s="5" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>53</v>
       </c>
@@ -993,7 +1038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>74</v>
       </c>
@@ -1007,7 +1052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>75</v>
       </c>
@@ -1021,7 +1066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>63</v>
       </c>
@@ -1042,29 +1087,29 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="52.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.7109375" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="12" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.21875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="58.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.21875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.21875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="58.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="8" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
@@ -1108,7 +1153,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="11" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="11" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
@@ -1151,30 +1196,30 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="16.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="35.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="16.140625" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="14" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.44140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1206,7 +1251,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>76</v>
       </c>
@@ -1239,29 +1284,29 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.77734375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="74.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="51.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="33.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="74.42578125" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="15" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.44140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
@@ -1302,7 +1347,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
@@ -1339,37 +1384,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.21875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="59.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.77734375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="55.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="59.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
@@ -1413,7 +1458,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="11" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="11" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
@@ -1453,32 +1498,32 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="15" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.77734375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1510,7 +1555,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>76</v>
       </c>
@@ -1543,28 +1588,28 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="53.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.7109375" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="13" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.88671875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.85546875" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="44" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="77.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="77.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
@@ -1605,7 +1650,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
@@ -1642,36 +1687,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="35.5546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="59.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="51.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="30.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="35.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="59.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
@@ -1715,7 +1760,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="11" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="11" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
@@ -1755,31 +1800,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.21875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="35.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1811,7 +1856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>76</v>
       </c>
@@ -1844,28 +1889,28 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="51.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="19" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="59.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="59.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="12" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
@@ -1906,7 +1951,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
@@ -1943,37 +1988,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-1100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="35" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.5546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="60.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.77734375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.77734375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.77734375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="60.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
@@ -2017,7 +2062,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="11" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="11" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
@@ -2057,33 +2102,33 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-1200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.21875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.77734375" style="5" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.109375" style="5" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.109375" style="5" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="35.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.7109375" style="5" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.140625" style="5" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.140625" style="5" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2115,7 +2160,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>76</v>
       </c>
@@ -2149,25 +2194,25 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="37.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="15" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2199,7 +2244,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>76</v>
       </c>
@@ -2232,28 +2277,28 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.44140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="37.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="37.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="37.42578125" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="67" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="15" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="14" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
@@ -2294,7 +2339,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
@@ -2331,36 +2376,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-1400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="51.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="13" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="17" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="37.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.5546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="19.109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="37.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
@@ -2404,7 +2449,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="11" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="11" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
@@ -2427,7 +2472,7 @@
         <v>80</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>84</v>
@@ -2444,35 +2489,35 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-1500-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="39.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="51.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="39.5703125" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="59" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
@@ -2513,7 +2558,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
@@ -2550,36 +2595,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="33" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="30" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="57.88671875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="57.85546875" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.21875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
@@ -2623,7 +2668,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
@@ -2663,31 +2708,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="39.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2719,7 +2764,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>76</v>
       </c>
@@ -2746,35 +2791,35 @@
       </c>
       <c r="I2" s="15"/>
     </row>
-    <row r="3" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.77734375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="41.21875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="62.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="41.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="62.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
@@ -2815,7 +2860,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
@@ -2852,37 +2897,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="51.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="43" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="65.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.88671875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.5546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="65.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.85546875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
@@ -2926,7 +2971,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="11" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="11" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
@@ -2966,32 +3011,32 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3023,7 +3068,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>76</v>
       </c>
@@ -3057,28 +3102,28 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C8:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30.77734375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="58.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="52.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="58.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
@@ -3119,7 +3164,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
@@ -3156,7 +3201,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
